--- a/Documentation/SCRUM/CST-247-SprintProductLog6.xlsx
+++ b/Documentation/SCRUM/CST-247-SprintProductLog6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick Torres\Desktop\VERSION CONTROL\Charp\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68752BDE-D9BC-4846-80CD-DCD6AA4E7F04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87246A2E-8EB0-4B84-B83A-CEEB063F4F8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>User Stories</t>
   </si>
@@ -374,6 +374,33 @@
   <si>
     <t>I can exit my game</t>
   </si>
+  <si>
+    <t>Button Styles</t>
+  </si>
+  <si>
+    <t>click on actual buttons</t>
+  </si>
+  <si>
+    <t>I can see the button</t>
+  </si>
+  <si>
+    <t>Security Filter</t>
+  </si>
+  <si>
+    <t>secure pages from non users</t>
+  </si>
+  <si>
+    <t>limit access to pages</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>add logging to entire project</t>
+  </si>
+  <si>
+    <t>for debugging purpo.</t>
+  </si>
 </sst>
 </file>
 
@@ -587,6 +614,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,15 +636,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,7 +920,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,14 +937,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -926,11 +953,11 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1353,17 +1380,17 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -1516,17 +1543,17 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -1704,17 +1731,17 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
@@ -1817,17 +1844,17 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
@@ -1858,34 +1885,74 @@
       <c r="A42" s="7">
         <v>6.2</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="12">
+        <v>29</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" s="10"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="11"/>
+      <c r="A43" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="12">
+        <v>30</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H43" s="10"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="11"/>
+      <c r="A44" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="12">
+        <v>31</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H44" s="10"/>
       <c r="I44" s="6"/>
     </row>
@@ -24079,83 +24146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24384,31 +24374,103 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543DFEB0-7AA3-434C-B1C2-BCF78AB39365}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68741204-811B-4110-9B64-9D55504528C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1713361C-F80E-4293-9FB3-5DC100B81DE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5499EA-2107-4096-9690-EDC799091AC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A856C235-C1E3-486A-AF6F-91B1EB05F3BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
@@ -24425,21 +24487,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5499EA-2107-4096-9690-EDC799091AC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1713361C-F80E-4293-9FB3-5DC100B81DE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68741204-811B-4110-9B64-9D55504528C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543DFEB0-7AA3-434C-B1C2-BCF78AB39365}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>